--- a/NEW HR/DONE/OBINA, JAIME.xlsx
+++ b/NEW HR/DONE/OBINA, JAIME.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F259A-CA3D-45B9-88C1-C08C44672843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -246,12 +247,18 @@
   </si>
   <si>
     <t>OBINA, JAIME</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>7/10-12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1161,7 +1168,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1178,25 +1185,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1208,25 +1215,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1533,34 +1540,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C79"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1581,7 +1588,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1599,7 +1606,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1626,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1627,7 +1634,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1640,7 +1647,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -1657,7 +1664,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1701,7 +1708,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1711,12 +1718,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1738,7 +1745,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1758,7 +1765,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1778,7 +1785,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1824,7 +1831,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1844,7 +1851,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1870,7 +1877,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1890,7 +1897,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1910,7 +1917,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1930,7 +1937,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1950,7 +1957,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1970,7 +1977,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1990,7 +1997,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -2008,7 +2015,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -2028,7 +2035,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -2048,7 +2055,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -2068,7 +2075,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -2088,7 +2095,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -2108,7 +2115,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -2128,7 +2135,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -2148,7 +2155,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -2168,7 +2175,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -2188,7 +2195,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -2208,7 +2215,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -2228,7 +2235,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -2252,7 +2259,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>56</v>
       </c>
@@ -2270,7 +2277,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -2290,7 +2297,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -2310,7 +2317,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2330,7 +2337,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2350,7 +2357,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2370,7 +2377,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2390,7 +2397,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2410,7 +2417,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2430,7 +2437,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2450,7 +2457,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2470,7 +2477,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2490,7 +2497,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -2514,7 +2521,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>60</v>
       </c>
@@ -2532,7 +2539,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2552,7 +2559,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2572,7 +2579,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2592,7 +2599,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2612,7 +2619,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2632,7 +2639,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -2652,7 +2659,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -2672,7 +2679,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -2692,7 +2699,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -2712,7 +2719,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -2732,7 +2739,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -2752,7 +2759,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -2776,7 +2783,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>61</v>
       </c>
@@ -2794,7 +2801,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -2814,7 +2821,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -2834,7 +2841,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -2854,7 +2861,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -2874,7 +2881,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -2894,7 +2901,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -2914,7 +2921,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -2934,7 +2941,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -2954,7 +2961,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -2974,7 +2981,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -2994,7 +3001,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -3040,7 +3047,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="49"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>68</v>
       </c>
@@ -3058,9 +3065,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -3078,9 +3085,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -3098,9 +3105,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -3118,9 +3125,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -3138,42 +3145,50 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -3188,8 +3203,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -3204,8 +3221,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -3220,8 +3239,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3236,8 +3257,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3252,8 +3275,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3268,8 +3293,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3284,8 +3311,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3300,8 +3329,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3316,8 +3347,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3332,8 +3365,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3348,8 +3383,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45473</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3364,8 +3401,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45504</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3380,8 +3419,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45535</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3396,8 +3437,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45565</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3412,8 +3455,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45596</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3428,8 +3473,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45626</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3444,8 +3491,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45657</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3460,8 +3509,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45688</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3476,8 +3527,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45716</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3492,8 +3545,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45747</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3508,8 +3563,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45777</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3524,8 +3581,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45808</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3540,7 +3599,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3556,7 +3615,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3572,7 +3631,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3588,7 +3647,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3604,7 +3663,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3620,7 +3679,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3636,7 +3695,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3652,7 +3711,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3668,7 +3727,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3684,7 +3743,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3700,7 +3759,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="15"/>
       <c r="C115" s="42"/>
@@ -3731,10 +3790,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3757,34 +3816,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A30" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +3864,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3823,7 +3882,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3843,7 +3902,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3851,7 +3910,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3864,7 +3923,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3881,7 +3940,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3916,7 +3975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3925,7 +3984,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>210.708</v>
+        <v>207.708</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3940,7 +3999,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -3962,7 +4021,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43252</v>
       </c>
@@ -3986,7 +4045,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43344</v>
       </c>
@@ -4010,7 +4069,7 @@
         <v>43355</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>52</v>
       </c>
@@ -4028,7 +4087,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43556</v>
       </c>
@@ -4052,7 +4111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43647</v>
       </c>
@@ -4076,7 +4135,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>51</v>
@@ -4098,7 +4157,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43678</v>
       </c>
@@ -4122,7 +4181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43739</v>
       </c>
@@ -4146,7 +4205,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>51</v>
@@ -4168,7 +4227,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43800</v>
       </c>
@@ -4192,7 +4251,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>56</v>
       </c>
@@ -4210,7 +4269,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -4234,7 +4293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4256,7 +4315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -4280,7 +4339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>61</v>
       </c>
@@ -4298,7 +4357,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44593</v>
       </c>
@@ -4322,7 +4381,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44743</v>
       </c>
@@ -4346,7 +4405,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44774</v>
       </c>
@@ -4370,7 +4429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44896</v>
       </c>
@@ -4394,7 +4453,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>68</v>
       </c>
@@ -4412,7 +4471,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44986</v>
       </c>
@@ -4436,7 +4495,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>45047</v>
       </c>
@@ -4460,11 +4519,17 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>45110</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>3</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13" t="str">
@@ -4474,9 +4539,11 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4492,7 +4559,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4508,7 +4575,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4524,7 +4591,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4540,7 +4607,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4556,7 +4623,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4572,7 +4639,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4588,7 +4655,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4604,7 +4671,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4620,7 +4687,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4636,7 +4703,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4652,7 +4719,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4668,7 +4735,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4684,7 +4751,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4700,7 +4767,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4716,7 +4783,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4732,7 +4799,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4748,7 +4815,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4764,7 +4831,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4780,7 +4847,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4796,7 +4863,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4812,7 +4879,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4828,7 +4895,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4844,7 +4911,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4860,7 +4927,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4876,7 +4943,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4892,7 +4959,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4908,7 +4975,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4924,7 +4991,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4940,7 +5007,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4956,7 +5023,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4972,7 +5039,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4988,7 +5055,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5004,7 +5071,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5020,7 +5087,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5036,7 +5103,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5052,7 +5119,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="15"/>
       <c r="C70" s="42"/>
@@ -5083,10 +5150,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5109,28 +5176,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5143,7 +5210,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5172,7 +5239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>214.708</v>
       </c>
@@ -5196,17 +5263,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5227,7 +5297,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>140</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5254,7 +5328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5280,7 +5354,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5306,7 +5380,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5332,7 +5406,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5358,7 +5432,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5384,7 +5458,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5410,7 +5484,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5436,7 +5510,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5456,7 +5530,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5476,7 +5550,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5496,7 +5570,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5517,7 +5591,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5538,7 +5612,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5559,7 +5633,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5580,7 +5654,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5601,7 +5675,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5622,7 +5696,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5643,7 +5717,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5664,7 +5738,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5685,7 +5759,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5706,7 +5780,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5727,7 +5801,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5748,7 +5822,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5769,7 +5843,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5790,7 +5864,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5811,7 +5885,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5832,7 +5906,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5853,7 +5927,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5874,7 +5948,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5895,7 +5969,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5916,7 +5990,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5925,7 +5999,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5934,7 +6008,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5943,7 +6017,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5952,7 +6026,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5961,7 +6035,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5970,7 +6044,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5979,7 +6053,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5988,7 +6062,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5997,7 +6071,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6006,7 +6080,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6015,7 +6089,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6024,7 +6098,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6033,7 +6107,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6042,7 +6116,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6051,7 +6125,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6060,7 +6134,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6069,7 +6143,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6078,7 +6152,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6087,7 +6161,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6096,7 +6170,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6105,7 +6179,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6114,7 +6188,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6123,7 +6197,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6132,7 +6206,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6141,7 +6215,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6150,7 +6224,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6159,7 +6233,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6168,7 +6242,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6177,7 +6251,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/OBINA, JAIME.xlsx
+++ b/NEW HR/DONE/OBINA, JAIME.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F259A-CA3D-45B9-88C1-C08C44672843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,12 +252,15 @@
   </si>
   <si>
     <t>7/10-12/2023</t>
+  </si>
+  <si>
+    <t>9/13,14/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -637,14 +639,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -654,9 +659,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,7 +1170,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1185,25 +1187,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1215,25 +1217,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1540,34 +1542,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A72" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A72" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1579,16 +1581,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1597,16 +1599,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1617,16 +1619,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1634,7 +1636,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1647,24 +1649,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1708,7 +1710,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1718,12 +1720,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1745,7 +1747,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1765,7 +1767,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1785,7 +1787,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1831,7 +1833,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1851,7 +1853,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1877,7 +1879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1897,7 +1899,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1917,7 +1919,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1937,7 +1939,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1957,7 +1959,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1977,7 +1979,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1997,7 +1999,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>52</v>
       </c>
@@ -2015,7 +2017,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -2035,7 +2037,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -2055,7 +2057,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -2075,7 +2077,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -2095,7 +2097,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -2115,7 +2117,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -2135,7 +2137,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -2155,7 +2157,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -2175,7 +2177,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -2195,7 +2197,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -2215,7 +2217,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -2235,7 +2237,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -2259,7 +2261,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>56</v>
       </c>
@@ -2277,7 +2279,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -2297,7 +2299,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -2317,7 +2319,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2337,7 +2339,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2357,7 +2359,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2377,7 +2379,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2397,7 +2399,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2417,7 +2419,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2437,7 +2439,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2457,7 +2459,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2477,7 +2479,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2497,7 +2499,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -2521,7 +2523,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>60</v>
       </c>
@@ -2539,7 +2541,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2559,7 +2561,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2579,7 +2581,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2599,7 +2601,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2619,7 +2621,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2639,7 +2641,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -2659,7 +2661,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -2679,7 +2681,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -2699,7 +2701,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -2719,7 +2721,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -2739,7 +2741,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -2759,7 +2761,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -2783,7 +2785,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>61</v>
       </c>
@@ -2801,7 +2803,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -2821,7 +2823,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -2841,7 +2843,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -2861,7 +2863,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -2881,7 +2883,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -2901,7 +2903,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -2921,7 +2923,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -2941,7 +2943,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="49"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -2961,7 +2963,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -2981,7 +2983,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -3001,7 +3003,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -3047,7 +3049,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="49"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>68</v>
       </c>
@@ -3065,7 +3067,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -3085,7 +3087,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -3105,7 +3107,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -3125,7 +3127,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -3145,7 +3147,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -3165,7 +3167,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -3185,43 +3187,47 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -3239,7 +3245,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -3257,7 +3263,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -3275,7 +3281,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -3293,7 +3299,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45322</v>
       </c>
@@ -3311,7 +3317,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45351</v>
       </c>
@@ -3329,7 +3335,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45382</v>
       </c>
@@ -3347,7 +3353,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45412</v>
       </c>
@@ -3365,7 +3371,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45443</v>
       </c>
@@ -3383,7 +3389,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45473</v>
       </c>
@@ -3401,7 +3407,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45504</v>
       </c>
@@ -3419,7 +3425,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45535</v>
       </c>
@@ -3437,7 +3443,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45565</v>
       </c>
@@ -3455,7 +3461,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45596</v>
       </c>
@@ -3473,7 +3479,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45626</v>
       </c>
@@ -3491,7 +3497,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45657</v>
       </c>
@@ -3509,7 +3515,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45688</v>
       </c>
@@ -3527,7 +3533,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45716</v>
       </c>
@@ -3545,7 +3551,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45747</v>
       </c>
@@ -3563,7 +3569,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45777</v>
       </c>
@@ -3581,7 +3587,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45808</v>
       </c>
@@ -3599,7 +3605,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3615,7 +3621,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3631,7 +3637,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3647,7 +3653,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3663,7 +3669,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3679,7 +3685,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3695,7 +3701,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3711,7 +3717,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3727,7 +3733,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3743,7 +3749,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3759,7 +3765,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41"/>
       <c r="B115" s="15"/>
       <c r="C115" s="42"/>
@@ -3777,23 +3783,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3816,34 +3822,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A30" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A30" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3855,16 +3861,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3873,16 +3879,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3893,16 +3899,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3910,7 +3916,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3923,24 +3929,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3994,12 +4000,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>179.75</v>
+        <v>177.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -4021,7 +4027,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43252</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43344</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>43355</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>52</v>
       </c>
@@ -4087,7 +4093,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43556</v>
       </c>
@@ -4111,7 +4117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43647</v>
       </c>
@@ -4135,7 +4141,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>51</v>
@@ -4157,7 +4163,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43678</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43739</v>
       </c>
@@ -4205,7 +4211,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>51</v>
@@ -4227,7 +4233,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43800</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>56</v>
       </c>
@@ -4269,7 +4275,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43862</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4315,7 +4321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43983</v>
       </c>
@@ -4339,7 +4345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>61</v>
       </c>
@@ -4357,7 +4363,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44593</v>
       </c>
@@ -4381,7 +4387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44743</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44774</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44896</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>68</v>
       </c>
@@ -4471,7 +4477,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44986</v>
       </c>
@@ -4495,7 +4501,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>45047</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>45110</v>
       </c>
@@ -4543,9 +4549,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
@@ -4554,12 +4564,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="39">
+        <v>2</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="20"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4575,7 +4589,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4591,7 +4605,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4607,7 +4621,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4623,7 +4637,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4639,7 +4653,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4655,7 +4669,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4671,7 +4685,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4687,7 +4701,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4703,7 +4717,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4719,7 +4733,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4735,7 +4749,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4751,7 +4765,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4767,7 +4781,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4783,7 +4797,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4799,7 +4813,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4815,7 +4829,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4831,7 +4845,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4847,7 +4861,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4863,7 +4877,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4879,7 +4893,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4895,7 +4909,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4911,7 +4925,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4927,7 +4941,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4943,7 +4957,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4959,7 +4973,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4975,7 +4989,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4991,7 +5005,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5007,7 +5021,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5023,7 +5037,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5039,7 +5053,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5055,7 +5069,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5071,7 +5085,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5087,7 +5101,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5103,7 +5117,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5119,7 +5133,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="15"/>
       <c r="C70" s="42"/>
@@ -5150,10 +5164,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5176,28 +5190,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5210,7 +5224,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5239,7 +5253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>214.708</v>
       </c>
@@ -5263,17 +5277,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -5297,10 +5311,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -5328,7 +5342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5354,7 +5368,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5380,7 +5394,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5406,7 +5420,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5432,7 +5446,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5458,7 +5472,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5484,7 +5498,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5510,7 +5524,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5530,7 +5544,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5550,7 +5564,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5570,7 +5584,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5591,7 +5605,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5612,7 +5626,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5633,7 +5647,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5654,7 +5668,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5675,7 +5689,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5696,7 +5710,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5717,7 +5731,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5738,7 +5752,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5759,7 +5773,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5780,7 +5794,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5801,7 +5815,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5822,7 +5836,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5843,7 +5857,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5864,7 +5878,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5885,7 +5899,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5906,7 +5920,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5927,7 +5941,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5948,7 +5962,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5969,7 +5983,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5990,7 +6004,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5999,7 +6013,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6008,7 +6022,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6017,7 +6031,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6026,7 +6040,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6035,7 +6049,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6044,7 +6058,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6053,7 +6067,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6062,7 +6076,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6071,7 +6085,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6080,7 +6094,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6089,7 +6103,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6098,7 +6112,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6107,7 +6121,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6116,7 +6130,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6125,7 +6139,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6134,7 +6148,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6143,7 +6157,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6152,7 +6166,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6161,7 +6175,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6170,7 +6184,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6179,7 +6193,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6188,7 +6202,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6197,7 +6211,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6206,7 +6220,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6215,7 +6229,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6224,7 +6238,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6233,7 +6247,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6242,7 +6256,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6251,7 +6265,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
